--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,29 +506,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>San Miguel Meysulao High School</t>
+          <t>BMLTC Multi-Purpose Bldg and EC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.9267991010101</v>
+        <v>14.9185376869108</v>
       </c>
       <c r="D2" t="n">
-        <v>120.742941581954</v>
+        <v>120.766768211462</v>
       </c>
       <c r="E2" t="n">
-        <v>3464</v>
+        <v>1641</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6928</v>
+        <v>3282</v>
       </c>
       <c r="H2" t="n">
-        <v>207840000</v>
+        <v>98460000</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -549,26 +549,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NV9 Multi-Purpose</t>
+          <t>F. Mendoza Memorial Elem Sch.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.8980360749457</v>
+        <v>14.9176780529243</v>
       </c>
       <c r="D3" t="n">
-        <v>120.764234222054</v>
+        <v>120.767878787289</v>
       </c>
       <c r="E3" t="n">
-        <v>2513</v>
+        <v>1671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5026</v>
+        <v>3342</v>
       </c>
       <c r="H3" t="n">
-        <v>150780000</v>
+        <v>100260000</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -592,26 +592,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEYTO Multi-Purpose/ E.C.</t>
+          <t>Gatbuca Basketball Court</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14.8833047964844</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="D4" t="n">
-        <v>120.72904705443</v>
+        <v>120.766774213649</v>
       </c>
       <c r="E4" t="n">
-        <v>142</v>
+        <v>376</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>284</v>
+        <v>752</v>
       </c>
       <c r="H4" t="n">
-        <v>8520000</v>
+        <v>22560000</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -628,6 +628,92 @@
         </is>
       </c>
       <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>San Miguel Meysulao High School</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9167991010101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>120.742941581954</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3464</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6928</v>
+      </c>
+      <c r="H5" t="n">
+        <v>207840000</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Doña Damiana Elem School</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14.917701586824</v>
+      </c>
+      <c r="D6" t="n">
+        <v>120.743048619728</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3135</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6270</v>
+      </c>
+      <c r="H6" t="n">
+        <v>188100000</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Built</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -1,37 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>xDegrees</t>
+  </si>
+  <si>
+    <t>yDegrees</t>
+  </si>
+  <si>
+    <t>Area1</t>
+  </si>
+  <si>
+    <t>Cost1</t>
+  </si>
+  <si>
+    <t>Area2</t>
+  </si>
+  <si>
+    <t>Cost2</t>
+  </si>
+  <si>
+    <t>ResToFlood</t>
+  </si>
+  <si>
+    <t>ResToTyphoon</t>
+  </si>
+  <si>
+    <t>ResToEarthquake</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Gatbuca Basketball Court</t>
+  </si>
+  <si>
+    <t>San Miguel Meysulao High School</t>
+  </si>
+  <si>
+    <t>Doña Damiana Elem School</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +105,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,112 +421,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>xDegrees</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yDegrees</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Area1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cost1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Area2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cost2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ResToFlood</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>ResToTyphoon</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ResToEarthquake</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13">
       <c r="A2" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BMLTC Multi-Purpose Bldg and EC</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14.9185376869108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>120.766768211462</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1641</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>14.9221390531142</v>
+      </c>
+      <c r="D2">
+        <v>120.766774213649</v>
+      </c>
+      <c r="E2">
+        <v>376</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="n">
-        <v>3282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>98460000</v>
+      <c r="G2">
+        <v>752</v>
+      </c>
+      <c r="H2">
+        <v>22560000</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -536,39 +503,34 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13">
       <c r="A3" t="b">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>F. Mendoza Memorial Elem Sch.</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14.9176780529243</v>
-      </c>
-      <c r="D3" t="n">
-        <v>120.767878787289</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1671</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>14.9167991010101</v>
+      </c>
+      <c r="D3">
+        <v>120.742941581954</v>
+      </c>
+      <c r="E3">
+        <v>3464</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="n">
-        <v>3342</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100260000</v>
+      <c r="G3">
+        <v>6928</v>
+      </c>
+      <c r="H3">
+        <v>207840000</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -577,145 +539,51 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>14.917701586824</v>
+      </c>
+      <c r="D4">
+        <v>120.743048619728</v>
+      </c>
+      <c r="E4">
+        <v>3135</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gatbuca Basketball Court</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14.9221390531142</v>
-      </c>
-      <c r="D4" t="n">
-        <v>120.766774213649</v>
-      </c>
-      <c r="E4" t="n">
-        <v>376</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="G4">
+        <v>6270</v>
+      </c>
+      <c r="H4">
+        <v>188100000</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="G4" t="n">
-        <v>752</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22560000</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>San Miguel Meysulao High School</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14.9167991010101</v>
-      </c>
-      <c r="D5" t="n">
-        <v>120.742941581954</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3464</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6928</v>
-      </c>
-      <c r="H5" t="n">
-        <v>207840000</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="b">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Doña Damiana Elem School</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14.917701586824</v>
-      </c>
-      <c r="D6" t="n">
-        <v>120.743048619728</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3135</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6270</v>
-      </c>
-      <c r="H6" t="n">
-        <v>188100000</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Built</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Active</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Doña Damiana Elem School</t>
+  </si>
+  <si>
+    <t>Calizon Dike</t>
+  </si>
+  <si>
+    <t>Frances E.C.</t>
   </si>
   <si>
     <t>Built</t>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +492,7 @@
         <v>376</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>752</v>
@@ -504,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -542,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -580,7 +586,83 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
+      </c>
+      <c r="C5">
+        <v>14.9136800407707</v>
+      </c>
+      <c r="D5">
+        <v>120.755871075221</v>
+      </c>
+      <c r="E5">
+        <v>126</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>252</v>
+      </c>
+      <c r="H5">
+        <v>7560000</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>14.9194611702998</v>
+      </c>
+      <c r="D6">
+        <v>120.762172685224</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>9000000</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Active</t>
   </si>
@@ -55,6 +55,15 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>BMLTC Multi-Purpose Bldg and EC</t>
+  </si>
+  <si>
+    <t>F. Mendoza Memorial Elem Sch.</t>
+  </si>
+  <si>
+    <t>Calumpit Sports Complex</t>
+  </si>
+  <si>
     <t>Gatbuca Basketball Court</t>
   </si>
   <si>
@@ -64,10 +73,52 @@
     <t>Doña Damiana Elem School</t>
   </si>
   <si>
+    <t>Danga Dike</t>
+  </si>
+  <si>
+    <t>Meysulao Multipurpose/E.C.</t>
+  </si>
+  <si>
     <t>Calizon Dike</t>
   </si>
   <si>
+    <t>San Marcos Elem. Sch.</t>
+  </si>
+  <si>
+    <t>San Marcos National H.S.</t>
+  </si>
+  <si>
+    <t>GMA Kapuso E.C.</t>
+  </si>
+  <si>
+    <t>NV9 Multi-Purpose</t>
+  </si>
+  <si>
     <t>Frances E.C.</t>
+  </si>
+  <si>
+    <t>Balungao E.C.</t>
+  </si>
+  <si>
+    <t>Gugo E.C.</t>
+  </si>
+  <si>
+    <t>San Marcos E.C.</t>
+  </si>
+  <si>
+    <t>San Jose E.C.</t>
+  </si>
+  <si>
+    <t>MEYTO Multi-Purpose/ E.C.</t>
+  </si>
+  <si>
+    <t>Barangay Hall Bulusan</t>
+  </si>
+  <si>
+    <t>Brgy. Hall Sta. Lucia</t>
+  </si>
+  <si>
+    <t>Mun. Covered Court</t>
   </si>
   <si>
     <t>Built</t>
@@ -428,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,22 +534,22 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>14.9221390531142</v>
+        <v>14.9185376869108</v>
       </c>
       <c r="D2">
-        <v>120.766774213649</v>
+        <v>120.766768211462</v>
       </c>
       <c r="E2">
-        <v>376</v>
+        <v>1641</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>752</v>
+        <v>3282</v>
       </c>
       <c r="H2">
-        <v>22560000</v>
+        <v>98460000</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -510,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -521,22 +572,22 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>14.9167991010101</v>
+        <v>14.9176780529243</v>
       </c>
       <c r="D3">
-        <v>120.742941581954</v>
+        <v>120.767878787289</v>
       </c>
       <c r="E3">
-        <v>3464</v>
+        <v>1671</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6928</v>
+        <v>3342</v>
       </c>
       <c r="H3">
-        <v>207840000</v>
+        <v>100260000</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -545,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -559,22 +610,22 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>14.917701586824</v>
+        <v>14.9185209048724</v>
       </c>
       <c r="D4">
-        <v>120.743048619728</v>
+        <v>120.767571728115</v>
       </c>
       <c r="E4">
-        <v>3135</v>
+        <v>947</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>6270</v>
+        <v>1894</v>
       </c>
       <c r="H4">
-        <v>188100000</v>
+        <v>56820000</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -583,10 +634,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -597,34 +648,34 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>14.9136800407707</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="D5">
-        <v>120.755871075221</v>
+        <v>120.766774213649</v>
       </c>
       <c r="E5">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G5">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="H5">
-        <v>7560000</v>
+        <v>22560000</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -635,34 +686,680 @@
         <v>17</v>
       </c>
       <c r="C6">
+        <v>14.9167991010101</v>
+      </c>
+      <c r="D6">
+        <v>120.742941581954</v>
+      </c>
+      <c r="E6">
+        <v>3464</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>6928</v>
+      </c>
+      <c r="H6">
+        <v>207840000</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>14.917701586824</v>
+      </c>
+      <c r="D7">
+        <v>120.743048619728</v>
+      </c>
+      <c r="E7">
+        <v>3135</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>6270</v>
+      </c>
+      <c r="H7">
+        <v>188100000</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="b">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>14.9271290793079</v>
+      </c>
+      <c r="D8">
+        <v>120.75016278348</v>
+      </c>
+      <c r="E8">
+        <v>126</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>252</v>
+      </c>
+      <c r="H8">
+        <v>7560000</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>14.905513184046</v>
+      </c>
+      <c r="D9">
+        <v>120.739161033176</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>6000000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>14.9136800407707</v>
+      </c>
+      <c r="D10">
+        <v>120.755871075221</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>252</v>
+      </c>
+      <c r="H10">
+        <v>7560000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>14.8978852342351</v>
+      </c>
+      <c r="D11">
+        <v>120.778807101888</v>
+      </c>
+      <c r="E11">
+        <v>1147</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2294</v>
+      </c>
+      <c r="H11">
+        <v>68820000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>14.8933901983676</v>
+      </c>
+      <c r="D12">
+        <v>120.777840587943</v>
+      </c>
+      <c r="E12">
+        <v>6353</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>12706</v>
+      </c>
+      <c r="H12">
+        <v>381180000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>14.8930053477281</v>
+      </c>
+      <c r="D13">
+        <v>120.799658008805</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>400</v>
+      </c>
+      <c r="H13">
+        <v>12000000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>14.8980360749457</v>
+      </c>
+      <c r="D14">
+        <v>120.764234222054</v>
+      </c>
+      <c r="E14">
+        <v>2513</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>5026</v>
+      </c>
+      <c r="H14">
+        <v>150780000</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
         <v>14.9194611702998</v>
       </c>
-      <c r="D6">
+      <c r="D15">
         <v>120.762172685224</v>
       </c>
-      <c r="E6">
+      <c r="E15">
         <v>150</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>300</v>
       </c>
-      <c r="H6">
+      <c r="H15">
         <v>9000000</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>14.9148551401837</v>
+      </c>
+      <c r="D16">
+        <v>120.761492937455</v>
+      </c>
+      <c r="E16">
+        <v>216</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>432</v>
+      </c>
+      <c r="H16">
+        <v>12960000</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>14.9013032539823</v>
+      </c>
+      <c r="D17">
+        <v>120.754718122165</v>
+      </c>
+      <c r="E17">
+        <v>336</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>672</v>
+      </c>
+      <c r="H17">
+        <v>20160000</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>14.8976681596682</v>
+      </c>
+      <c r="D18">
+        <v>120.779685551006</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>2400000</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>14.8832975084056</v>
+      </c>
+      <c r="D19">
+        <v>120.734533125581</v>
+      </c>
+      <c r="E19">
+        <v>268</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>536</v>
+      </c>
+      <c r="H19">
+        <v>16080000</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>14.8833047964844</v>
+      </c>
+      <c r="D20">
+        <v>120.72904705443</v>
+      </c>
+      <c r="E20">
+        <v>142</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>284</v>
+      </c>
+      <c r="H20">
+        <v>8520000</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>14.9087960788938</v>
+      </c>
+      <c r="D21">
+        <v>120.742261855893</v>
+      </c>
+      <c r="E21">
+        <v>700</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1400</v>
+      </c>
+      <c r="H21">
+        <v>42000000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>14.8995538574762</v>
+      </c>
+      <c r="D22">
+        <v>120.737428917917</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>9000000</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>14.9141384055205</v>
+      </c>
+      <c r="D23">
+        <v>120.764788274642</v>
+      </c>
+      <c r="E23">
+        <v>713</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1426</v>
+      </c>
+      <c r="H23">
+        <v>42780000</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Active</t>
   </si>
@@ -55,70 +55,28 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>BMLTC Multi-Purpose Bldg and EC</t>
-  </si>
-  <si>
     <t>F. Mendoza Memorial Elem Sch.</t>
   </si>
   <si>
-    <t>Calumpit Sports Complex</t>
-  </si>
-  <si>
-    <t>Gatbuca Basketball Court</t>
-  </si>
-  <si>
     <t>San Miguel Meysulao High School</t>
   </si>
   <si>
     <t>Doña Damiana Elem School</t>
   </si>
   <si>
-    <t>Danga Dike</t>
-  </si>
-  <si>
-    <t>Meysulao Multipurpose/E.C.</t>
-  </si>
-  <si>
     <t>Calizon Dike</t>
   </si>
   <si>
-    <t>San Marcos Elem. Sch.</t>
-  </si>
-  <si>
-    <t>San Marcos National H.S.</t>
-  </si>
-  <si>
     <t>GMA Kapuso E.C.</t>
   </si>
   <si>
-    <t>NV9 Multi-Purpose</t>
-  </si>
-  <si>
     <t>Frances E.C.</t>
   </si>
   <si>
     <t>Balungao E.C.</t>
   </si>
   <si>
-    <t>Gugo E.C.</t>
-  </si>
-  <si>
-    <t>San Marcos E.C.</t>
-  </si>
-  <si>
-    <t>San Jose E.C.</t>
-  </si>
-  <si>
-    <t>MEYTO Multi-Purpose/ E.C.</t>
-  </si>
-  <si>
     <t>Barangay Hall Bulusan</t>
-  </si>
-  <si>
-    <t>Brgy. Hall Sta. Lucia</t>
-  </si>
-  <si>
-    <t>Mun. Covered Court</t>
   </si>
   <si>
     <t>Built</t>
@@ -479,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +492,22 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>14.9185376869108</v>
+        <v>14.9176780529243</v>
       </c>
       <c r="D2">
-        <v>120.766768211462</v>
+        <v>120.767878787289</v>
       </c>
       <c r="E2">
-        <v>1641</v>
+        <v>1671</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3282</v>
+        <v>3342</v>
       </c>
       <c r="H2">
-        <v>98460000</v>
+        <v>100260000</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -558,10 +516,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -572,22 +530,22 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>14.9176780529243</v>
+        <v>14.9167991010101</v>
       </c>
       <c r="D3">
-        <v>120.767878787289</v>
+        <v>120.742941581954</v>
       </c>
       <c r="E3">
-        <v>1671</v>
+        <v>3464</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3342</v>
+        <v>6928</v>
       </c>
       <c r="H3">
-        <v>100260000</v>
+        <v>207840000</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -596,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -610,22 +568,22 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>14.9185209048724</v>
+        <v>14.917701586824</v>
       </c>
       <c r="D4">
-        <v>120.767571728115</v>
+        <v>120.743048619728</v>
       </c>
       <c r="E4">
-        <v>947</v>
+        <v>3135</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1894</v>
+        <v>6270</v>
       </c>
       <c r="H4">
-        <v>56820000</v>
+        <v>188100000</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -634,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -648,34 +606,34 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>14.9221390531142</v>
+        <v>14.9136800407707</v>
       </c>
       <c r="D5">
-        <v>120.766774213649</v>
+        <v>120.755871075221</v>
       </c>
       <c r="E5">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>752</v>
+        <v>252</v>
       </c>
       <c r="H5">
-        <v>22560000</v>
+        <v>7560000</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -686,22 +644,22 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>14.9167991010101</v>
+        <v>14.8930053477281</v>
       </c>
       <c r="D6">
-        <v>120.742941581954</v>
+        <v>120.799658008805</v>
       </c>
       <c r="E6">
-        <v>3464</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6928</v>
+        <v>400</v>
       </c>
       <c r="H6">
-        <v>207840000</v>
+        <v>12000000</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -713,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -724,22 +682,22 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>14.917701586824</v>
+        <v>14.9194611702998</v>
       </c>
       <c r="D7">
-        <v>120.743048619728</v>
+        <v>120.762172685224</v>
       </c>
       <c r="E7">
-        <v>3135</v>
+        <v>150</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>6270</v>
+        <v>300</v>
       </c>
       <c r="H7">
-        <v>188100000</v>
+        <v>9000000</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -748,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -762,34 +720,34 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>14.9271290793079</v>
+        <v>14.9148551401837</v>
       </c>
       <c r="D8">
-        <v>120.75016278348</v>
+        <v>120.761492937455</v>
       </c>
       <c r="E8">
-        <v>126</v>
+        <v>216</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="H8">
-        <v>7560000</v>
+        <v>12960000</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -800,22 +758,22 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>14.905513184046</v>
+        <v>14.9087960788938</v>
       </c>
       <c r="D9">
-        <v>120.739161033176</v>
+        <v>120.742261855893</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="H9">
-        <v>6000000</v>
+        <v>42000000</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -827,539 +785,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10">
-        <v>14.9136800407707</v>
-      </c>
-      <c r="D10">
-        <v>120.755871075221</v>
-      </c>
-      <c r="E10">
-        <v>126</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>252</v>
-      </c>
-      <c r="H10">
-        <v>7560000</v>
-      </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="b">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>14.8978852342351</v>
-      </c>
-      <c r="D11">
-        <v>120.778807101888</v>
-      </c>
-      <c r="E11">
-        <v>1147</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>2294</v>
-      </c>
-      <c r="H11">
-        <v>68820000</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="b">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>14.8933901983676</v>
-      </c>
-      <c r="D12">
-        <v>120.777840587943</v>
-      </c>
-      <c r="E12">
-        <v>6353</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>12706</v>
-      </c>
-      <c r="H12">
-        <v>381180000</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="b">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>14.8930053477281</v>
-      </c>
-      <c r="D13">
-        <v>120.799658008805</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>400</v>
-      </c>
-      <c r="H13">
-        <v>12000000</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="b">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>14.8980360749457</v>
-      </c>
-      <c r="D14">
-        <v>120.764234222054</v>
-      </c>
-      <c r="E14">
-        <v>2513</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>5026</v>
-      </c>
-      <c r="H14">
-        <v>150780000</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="b">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>14.9194611702998</v>
-      </c>
-      <c r="D15">
-        <v>120.762172685224</v>
-      </c>
-      <c r="E15">
-        <v>150</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15">
-        <v>9000000</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="b">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>14.9148551401837</v>
-      </c>
-      <c r="D16">
-        <v>120.761492937455</v>
-      </c>
-      <c r="E16">
-        <v>216</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>432</v>
-      </c>
-      <c r="H16">
-        <v>12960000</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>14.9013032539823</v>
-      </c>
-      <c r="D17">
-        <v>120.754718122165</v>
-      </c>
-      <c r="E17">
-        <v>336</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>672</v>
-      </c>
-      <c r="H17">
-        <v>20160000</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" t="b">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18">
-        <v>14.8976681596682</v>
-      </c>
-      <c r="D18">
-        <v>120.779685551006</v>
-      </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>80</v>
-      </c>
-      <c r="H18">
-        <v>2400000</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="b">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>14.8832975084056</v>
-      </c>
-      <c r="D19">
-        <v>120.734533125581</v>
-      </c>
-      <c r="E19">
-        <v>268</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>536</v>
-      </c>
-      <c r="H19">
-        <v>16080000</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20">
-        <v>14.8833047964844</v>
-      </c>
-      <c r="D20">
-        <v>120.72904705443</v>
-      </c>
-      <c r="E20">
-        <v>142</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>284</v>
-      </c>
-      <c r="H20">
-        <v>8520000</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" t="b">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>14.9087960788938</v>
-      </c>
-      <c r="D21">
-        <v>120.742261855893</v>
-      </c>
-      <c r="E21">
-        <v>700</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1400</v>
-      </c>
-      <c r="H21">
-        <v>42000000</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="b">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22">
-        <v>14.8995538574762</v>
-      </c>
-      <c r="D22">
-        <v>120.737428917917</v>
-      </c>
-      <c r="E22">
-        <v>150</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>300</v>
-      </c>
-      <c r="H22">
-        <v>9000000</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23">
-        <v>14.9141384055205</v>
-      </c>
-      <c r="D23">
-        <v>120.764788274642</v>
-      </c>
-      <c r="E23">
-        <v>713</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>1426</v>
-      </c>
-      <c r="H23">
-        <v>42780000</v>
-      </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Active</t>
   </si>
@@ -55,31 +55,109 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>BMLTC Multi-Purpose Bldg and EC</t>
+  </si>
+  <si>
     <t>F. Mendoza Memorial Elem Sch.</t>
   </si>
   <si>
+    <t>Calumpit Sports Complex</t>
+  </si>
+  <si>
+    <t>Gatbuca Basketball Court</t>
+  </si>
+  <si>
     <t>San Miguel Meysulao High School</t>
   </si>
   <si>
     <t>Doña Damiana Elem School</t>
   </si>
   <si>
+    <t>Danga Dike</t>
+  </si>
+  <si>
+    <t>Meysulao Multipurpose/E.C.</t>
+  </si>
+  <si>
     <t>Calizon Dike</t>
   </si>
   <si>
+    <t>San Marcos Elem. Sch.</t>
+  </si>
+  <si>
+    <t>San Marcos National H.S.</t>
+  </si>
+  <si>
     <t>GMA Kapuso E.C.</t>
   </si>
   <si>
+    <t>NV9 Multi-Purpose</t>
+  </si>
+  <si>
     <t>Frances E.C.</t>
   </si>
   <si>
     <t>Balungao E.C.</t>
   </si>
   <si>
+    <t>Gugo E.C.</t>
+  </si>
+  <si>
+    <t>San Marcos E.C.</t>
+  </si>
+  <si>
+    <t>San Jose E.C.</t>
+  </si>
+  <si>
+    <t>MEYTO Multi-Purpose/ E.C.</t>
+  </si>
+  <si>
     <t>Barangay Hall Bulusan</t>
   </si>
   <si>
+    <t>Brgy. Hall Sta. Lucia</t>
+  </si>
+  <si>
+    <t>Mun. Covered Court</t>
+  </si>
+  <si>
+    <t>Pio Cruzcosa Empty Lot</t>
+  </si>
+  <si>
+    <t>Palimbang Empty Lot</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 1</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Caniogan Empty Lot</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 3</t>
+  </si>
+  <si>
+    <t>Iba O'Este Empty Lot 4</t>
+  </si>
+  <si>
+    <t>Caniogan Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Corazon Empty Lot 1</t>
+  </si>
+  <si>
+    <t>Corazon Empty Lot 2</t>
+  </si>
+  <si>
+    <t>Gugo Empty Lot</t>
+  </si>
+  <si>
     <t>Built</t>
+  </si>
+  <si>
+    <t>Empty Lot</t>
   </si>
 </sst>
 </file>
@@ -437,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,22 +570,22 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>14.9176780529243</v>
+        <v>14.9185376869108</v>
       </c>
       <c r="D2">
-        <v>120.767878787289</v>
+        <v>120.766768211462</v>
       </c>
       <c r="E2">
-        <v>1671</v>
+        <v>1641</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>12635700</v>
       </c>
       <c r="G2">
-        <v>3342</v>
+        <v>3282</v>
       </c>
       <c r="H2">
-        <v>100260000</v>
+        <v>98460000</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -516,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -530,34 +608,34 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>14.9167991010101</v>
+        <v>14.9176780529243</v>
       </c>
       <c r="D3">
-        <v>120.742941581954</v>
+        <v>120.767878787289</v>
       </c>
       <c r="E3">
-        <v>3464</v>
+        <v>1671</v>
       </c>
       <c r="F3">
+        <v>12866700</v>
+      </c>
+      <c r="G3">
+        <v>3342</v>
+      </c>
+      <c r="H3">
+        <v>100260000</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>6928</v>
-      </c>
-      <c r="H3">
-        <v>207840000</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -568,22 +646,22 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>14.917701586824</v>
+        <v>14.9185209048724</v>
       </c>
       <c r="D4">
-        <v>120.743048619728</v>
+        <v>120.767571728115</v>
       </c>
       <c r="E4">
-        <v>3135</v>
+        <v>947</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>7291900</v>
       </c>
       <c r="G4">
-        <v>6270</v>
+        <v>1894</v>
       </c>
       <c r="H4">
-        <v>188100000</v>
+        <v>56820000</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -592,10 +670,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -606,34 +684,34 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>14.9136800407707</v>
+        <v>14.9221390531142</v>
       </c>
       <c r="D5">
-        <v>120.755871075221</v>
+        <v>120.766774213649</v>
       </c>
       <c r="E5">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2895200</v>
       </c>
       <c r="G5">
-        <v>252</v>
+        <v>752</v>
       </c>
       <c r="H5">
-        <v>7560000</v>
+        <v>22560000</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -644,22 +722,22 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>14.8930053477281</v>
+        <v>14.9167991010101</v>
       </c>
       <c r="D6">
-        <v>120.799658008805</v>
+        <v>120.742941581954</v>
       </c>
       <c r="E6">
-        <v>200</v>
+        <v>3464</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>26672800</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>6928</v>
       </c>
       <c r="H6">
-        <v>12000000</v>
+        <v>207840000</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -671,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -682,34 +760,34 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>14.9194611702998</v>
+        <v>14.917701586824</v>
       </c>
       <c r="D7">
-        <v>120.762172685224</v>
+        <v>120.743048619728</v>
       </c>
       <c r="E7">
-        <v>150</v>
+        <v>3135</v>
       </c>
       <c r="F7">
+        <v>24139500</v>
+      </c>
+      <c r="G7">
+        <v>6270</v>
+      </c>
+      <c r="H7">
+        <v>188100000</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>300</v>
-      </c>
-      <c r="H7">
-        <v>9000000</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -720,34 +798,34 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>14.9148551401837</v>
+        <v>14.9271290793079</v>
       </c>
       <c r="D8">
-        <v>120.761492937455</v>
+        <v>120.75016278348</v>
       </c>
       <c r="E8">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="F8">
+        <v>970200</v>
+      </c>
+      <c r="G8">
+        <v>252</v>
+      </c>
+      <c r="H8">
+        <v>7560000</v>
+      </c>
+      <c r="I8" t="b">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>432</v>
-      </c>
-      <c r="H8">
-        <v>12960000</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -758,34 +836,984 @@
         <v>20</v>
       </c>
       <c r="C9">
+        <v>14.905513184046</v>
+      </c>
+      <c r="D9">
+        <v>120.739161033176</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>770000</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>6000000</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>14.9136800407707</v>
+      </c>
+      <c r="D10">
+        <v>120.755871075221</v>
+      </c>
+      <c r="E10">
+        <v>126</v>
+      </c>
+      <c r="F10">
+        <v>970200</v>
+      </c>
+      <c r="G10">
+        <v>252</v>
+      </c>
+      <c r="H10">
+        <v>7560000</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="b">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>14.8978852342351</v>
+      </c>
+      <c r="D11">
+        <v>120.778807101888</v>
+      </c>
+      <c r="E11">
+        <v>1147</v>
+      </c>
+      <c r="F11">
+        <v>8831900</v>
+      </c>
+      <c r="G11">
+        <v>2294</v>
+      </c>
+      <c r="H11">
+        <v>68820000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>14.8933901983676</v>
+      </c>
+      <c r="D12">
+        <v>120.777840587943</v>
+      </c>
+      <c r="E12">
+        <v>6353</v>
+      </c>
+      <c r="F12">
+        <v>48918100</v>
+      </c>
+      <c r="G12">
+        <v>12706</v>
+      </c>
+      <c r="H12">
+        <v>381180000</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="b">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>14.8930053477281</v>
+      </c>
+      <c r="D13">
+        <v>120.799658008805</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>1540000</v>
+      </c>
+      <c r="G13">
+        <v>400</v>
+      </c>
+      <c r="H13">
+        <v>12000000</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>14.8980360749457</v>
+      </c>
+      <c r="D14">
+        <v>120.764234222054</v>
+      </c>
+      <c r="E14">
+        <v>2513</v>
+      </c>
+      <c r="F14">
+        <v>19350100</v>
+      </c>
+      <c r="G14">
+        <v>5026</v>
+      </c>
+      <c r="H14">
+        <v>150780000</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="b">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>14.9194611702998</v>
+      </c>
+      <c r="D15">
+        <v>120.762172685224</v>
+      </c>
+      <c r="E15">
+        <v>150</v>
+      </c>
+      <c r="F15">
+        <v>1155000</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15">
+        <v>9000000</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="b">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>14.9148551401837</v>
+      </c>
+      <c r="D16">
+        <v>120.761492937455</v>
+      </c>
+      <c r="E16">
+        <v>216</v>
+      </c>
+      <c r="F16">
+        <v>1663200</v>
+      </c>
+      <c r="G16">
+        <v>432</v>
+      </c>
+      <c r="H16">
+        <v>12960000</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>14.9013032539823</v>
+      </c>
+      <c r="D17">
+        <v>120.754718122165</v>
+      </c>
+      <c r="E17">
+        <v>336</v>
+      </c>
+      <c r="F17">
+        <v>2587200</v>
+      </c>
+      <c r="G17">
+        <v>672</v>
+      </c>
+      <c r="H17">
+        <v>20160000</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="b">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>14.8976681596682</v>
+      </c>
+      <c r="D18">
+        <v>120.779685551006</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>308000</v>
+      </c>
+      <c r="G18">
+        <v>80</v>
+      </c>
+      <c r="H18">
+        <v>2400000</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="b">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>14.8832975084056</v>
+      </c>
+      <c r="D19">
+        <v>120.734533125581</v>
+      </c>
+      <c r="E19">
+        <v>268</v>
+      </c>
+      <c r="F19">
+        <v>2063600</v>
+      </c>
+      <c r="G19">
+        <v>536</v>
+      </c>
+      <c r="H19">
+        <v>16080000</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="b">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>14.8833047964844</v>
+      </c>
+      <c r="D20">
+        <v>120.72904705443</v>
+      </c>
+      <c r="E20">
+        <v>142</v>
+      </c>
+      <c r="F20">
+        <v>1093400</v>
+      </c>
+      <c r="G20">
+        <v>284</v>
+      </c>
+      <c r="H20">
+        <v>8520000</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
         <v>14.9087960788938</v>
       </c>
-      <c r="D9">
+      <c r="D21">
         <v>120.742261855893</v>
       </c>
-      <c r="E9">
+      <c r="E21">
         <v>700</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F21">
+        <v>5390000</v>
+      </c>
+      <c r="G21">
         <v>1400</v>
       </c>
-      <c r="H9">
+      <c r="H21">
         <v>42000000</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>14.8995538574762</v>
+      </c>
+      <c r="D22">
+        <v>120.737428917917</v>
+      </c>
+      <c r="E22">
+        <v>150</v>
+      </c>
+      <c r="F22">
+        <v>1155000</v>
+      </c>
+      <c r="G22">
+        <v>300</v>
+      </c>
+      <c r="H22">
+        <v>9000000</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>14.9141384055205</v>
+      </c>
+      <c r="D23">
+        <v>120.764788274642</v>
+      </c>
+      <c r="E23">
+        <v>713</v>
+      </c>
+      <c r="F23">
+        <v>5490100</v>
+      </c>
+      <c r="G23">
+        <v>1426</v>
+      </c>
+      <c r="H23">
+        <v>42780000</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>14.88320427</v>
+      </c>
+      <c r="D24">
+        <v>120.7891165</v>
+      </c>
+      <c r="E24">
+        <v>3870</v>
+      </c>
+      <c r="F24">
+        <v>280575000</v>
+      </c>
+      <c r="G24">
+        <v>7740</v>
+      </c>
+      <c r="H24">
+        <v>512775000</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="b">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>14.90055246</v>
+      </c>
+      <c r="D25">
+        <v>120.7730115</v>
+      </c>
+      <c r="E25">
+        <v>1903</v>
+      </c>
+      <c r="F25">
+        <v>137967500</v>
+      </c>
+      <c r="G25">
+        <v>3806</v>
+      </c>
+      <c r="H25">
+        <v>252147500</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="b">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>14.90486499</v>
+      </c>
+      <c r="D26">
+        <v>120.7683146</v>
+      </c>
+      <c r="E26">
+        <v>227</v>
+      </c>
+      <c r="F26">
+        <v>16457500</v>
+      </c>
+      <c r="G26">
+        <v>454</v>
+      </c>
+      <c r="H26">
+        <v>30077500</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>14.90533972</v>
+      </c>
+      <c r="D27">
+        <v>120.7679044</v>
+      </c>
+      <c r="E27">
+        <v>308</v>
+      </c>
+      <c r="F27">
+        <v>22330000</v>
+      </c>
+      <c r="G27">
+        <v>616</v>
+      </c>
+      <c r="H27">
+        <v>40810000</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="b">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>14.9054393</v>
+      </c>
+      <c r="D28">
+        <v>120.7681896</v>
+      </c>
+      <c r="E28">
+        <v>328</v>
+      </c>
+      <c r="F28">
+        <v>23780000</v>
+      </c>
+      <c r="G28">
+        <v>656</v>
+      </c>
+      <c r="H28">
+        <v>43460000</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="b">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>14.90612371</v>
+      </c>
+      <c r="D29">
+        <v>120.7673859</v>
+      </c>
+      <c r="E29">
+        <v>361</v>
+      </c>
+      <c r="F29">
+        <v>26172500</v>
+      </c>
+      <c r="G29">
+        <v>722</v>
+      </c>
+      <c r="H29">
+        <v>47832500</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="b">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>14.9074852</v>
+      </c>
+      <c r="D30">
+        <v>120.7668317</v>
+      </c>
+      <c r="E30">
+        <v>287</v>
+      </c>
+      <c r="F30">
+        <v>20807500</v>
+      </c>
+      <c r="G30">
+        <v>574</v>
+      </c>
+      <c r="H30">
+        <v>38027500</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="b">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>14.9078124</v>
+      </c>
+      <c r="D31">
+        <v>120.7674081</v>
+      </c>
+      <c r="E31">
+        <v>605</v>
+      </c>
+      <c r="F31">
+        <v>43862500</v>
+      </c>
+      <c r="G31">
+        <v>1210</v>
+      </c>
+      <c r="H31">
+        <v>80162500</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="b">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>14.91001504</v>
+      </c>
+      <c r="D32">
+        <v>120.7668446</v>
+      </c>
+      <c r="E32">
+        <v>1022</v>
+      </c>
+      <c r="F32">
+        <v>74095000</v>
+      </c>
+      <c r="G32">
+        <v>2044</v>
+      </c>
+      <c r="H32">
+        <v>135415000</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>14.91044971</v>
+      </c>
+      <c r="D33">
+        <v>120.7667966</v>
+      </c>
+      <c r="E33">
+        <v>394</v>
+      </c>
+      <c r="F33">
+        <v>28565000</v>
+      </c>
+      <c r="G33">
+        <v>788</v>
+      </c>
+      <c r="H33">
+        <v>52205000</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>14.91055583</v>
+      </c>
+      <c r="D34">
+        <v>120.7664613</v>
+      </c>
+      <c r="E34">
+        <v>527</v>
+      </c>
+      <c r="F34">
+        <v>38207500</v>
+      </c>
+      <c r="G34">
+        <v>1054</v>
+      </c>
+      <c r="H34">
+        <v>69827500</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ProgramSrc/modelShelData.xlsx
+++ b/ProgramSrc/modelShelData.xlsx
@@ -22,10 +22,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>xDegrees</t>
-  </si>
-  <si>
-    <t>yDegrees</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Area1</t>
